--- a/data/DiccPacientes.xlsx
+++ b/data/DiccPacientes.xlsx
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61681A59-2BE2-45E6-973A-AD303FB886A6}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="A1:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
